--- a/output/1Y_P22_1VAL-D.xlsx
+++ b/output/1Y_P22_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>13.9876</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>714.9189</v>
       </c>
-      <c r="G2" s="1">
-        <v>714.9189</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1684</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.9876</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1684</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E3" s="1">
+        <v>714.9189</v>
+      </c>
       <c r="F3" s="1">
         <v>776.289</v>
       </c>
-      <c r="G3" s="1">
-        <v>1491.208</v>
-      </c>
       <c r="H3" s="1">
-        <v>19109.83</v>
+        <v>9161.686100000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.4119</v>
+        <v>9161.686100000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.9876</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19109.83</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.042</v>
+        <v>-0.0838</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E4" s="1">
+        <v>1491.208</v>
+      </c>
       <c r="F4" s="1">
         <v>778.1556</v>
       </c>
-      <c r="G4" s="1">
-        <v>2269.3636</v>
-      </c>
       <c r="H4" s="1">
-        <v>29011.9978</v>
+        <v>19063.9008</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.2196</v>
+        <v>19063.9008</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.4119</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29011.9978</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0034</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E5" s="1">
+        <v>2269.3636</v>
+      </c>
       <c r="F5" s="1">
         <v>721.4279</v>
       </c>
-      <c r="G5" s="1">
-        <v>2990.7914</v>
-      </c>
       <c r="H5" s="1">
-        <v>41241.5183</v>
+        <v>31293.389</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.3744</v>
+        <v>31293.389</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.2196</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41241.5183</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0571</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E6" s="1">
+        <v>2990.7914</v>
+      </c>
       <c r="F6" s="1">
         <v>698.1826</v>
       </c>
-      <c r="G6" s="1">
-        <v>3688.9741</v>
-      </c>
       <c r="H6" s="1">
-        <v>52562.7157</v>
+        <v>42614.5907</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5539</v>
+        <v>42614.5907</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.3744</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52562.7157</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0258</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E7" s="1">
+        <v>3688.9741</v>
+      </c>
       <c r="F7" s="1">
         <v>702.5383</v>
       </c>
-      <c r="G7" s="1">
-        <v>4391.5123</v>
-      </c>
       <c r="H7" s="1">
-        <v>62184.6928</v>
+        <v>52236.6104</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6627</v>
+        <v>52236.6104</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.5539</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62184.6928</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.006</v>
+        <v>-0.0072</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E8" s="1">
+        <v>4391.5123</v>
+      </c>
       <c r="F8" s="1">
         <v>727.5055</v>
       </c>
-      <c r="G8" s="1">
-        <v>5119.0179</v>
-      </c>
       <c r="H8" s="1">
-        <v>69998.98579999999</v>
+        <v>60050.857</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.6745</v>
+        <v>60050.857</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.6627</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69998.98579999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0303</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E9" s="1">
+        <v>5119.0179</v>
+      </c>
       <c r="F9" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G9" s="1">
-        <v>5807.1307</v>
-      </c>
       <c r="H9" s="1">
-        <v>83954.2693</v>
+        <v>74006.15300000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7762</v>
+        <v>74006.15300000001</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>13.6745</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.75</v>
       </c>
-      <c r="L9" s="1">
-        <v>3455.3371</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-6544.6629</v>
+        <v>2964.2708</v>
       </c>
       <c r="O9" s="1">
-        <v>3455.3371</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87409.6063</v>
+        <v>-7035.7292</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0926</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E10" s="1">
+        <v>5807.1307</v>
+      </c>
       <c r="F10" s="1">
-        <v>773.0176</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6580.1483</v>
+        <v>764.2821</v>
       </c>
       <c r="H10" s="1">
-        <v>91996.3949</v>
+        <v>81188.9136</v>
       </c>
       <c r="I10" s="1">
-        <v>90863.8343</v>
+        <v>2964.2708</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8088</v>
+        <v>84153.1845</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80741.0677</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.9038</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10863.8343</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>2591.5028</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94587.8977</v>
+        <v>-10741.0677</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.029</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E11" s="1">
+        <v>6571.4128</v>
+      </c>
       <c r="F11" s="1">
-        <v>823.8104</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7403.9586</v>
+        <v>814.5009</v>
       </c>
       <c r="H11" s="1">
-        <v>97131.79270000001</v>
+        <v>86209.70729999999</v>
       </c>
       <c r="I11" s="1">
-        <v>101727.6685</v>
+        <v>2223.2031</v>
       </c>
       <c r="J11" s="1">
-        <v>13.7396</v>
+        <v>88432.9105</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91482.1354</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.9212</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10863.8343</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1727.6685</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>98859.4613</v>
+        <v>-10741.0677</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0548</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E12" s="1">
+        <v>7385.9137</v>
+      </c>
       <c r="F12" s="1">
-        <v>832.2354</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8236.194</v>
+        <v>822.8307</v>
       </c>
       <c r="H12" s="1">
-        <v>106956.039</v>
+        <v>95914.2139</v>
       </c>
       <c r="I12" s="1">
-        <v>112591.5028</v>
+        <v>1482.1354</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6703</v>
+        <v>97396.3493</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102223.2031</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.8403</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10863.8343</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>863.8343</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>107819.8732</v>
+        <v>-10741.0677</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0095</v>
+        <v>-0.0105</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E13" s="1">
+        <v>8208.7444</v>
+      </c>
       <c r="F13" s="1">
-        <v>784.772</v>
-      </c>
-      <c r="G13" s="1">
-        <v>9020.966</v>
+        <v>775.9037</v>
       </c>
       <c r="H13" s="1">
-        <v>124232.2334</v>
+        <v>113046.7238</v>
       </c>
       <c r="I13" s="1">
-        <v>123455.3371</v>
+        <v>741.0676999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>13.6854</v>
+        <v>113787.7915</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112964.2708</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.7615</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10863.8343</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>124232.2334</v>
+        <v>-10741.0677</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0544</v>
+        <v>0.0595</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E14" s="1">
+        <v>8984.6481</v>
+      </c>
       <c r="F14" s="1">
-        <v>-9020.966</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8208.7444</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128785.0477</v>
       </c>
       <c r="I14" s="1">
-        <v>123455.3371</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.6854</v>
+        <v>128785.0477</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112964.2708</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.573</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>129305.6247</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>129305.6247</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129305.6247</v>
+        <v>117663.3216</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0367</v>
+        <v>0.0404</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>13.9876</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>714.9189</v>
       </c>
       <c r="G2" s="1">
-        <v>714.9189</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1684</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.9876</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1684</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>12.8818</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>714.9189</v>
       </c>
       <c r="F3" s="1">
         <v>776.289</v>
       </c>
       <c r="G3" s="1">
-        <v>1491.208</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19109.83</v>
+        <v>9161.686100000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.4119</v>
+        <v>9161.686100000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.9876</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19109.83</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.042</v>
+        <v>-0.0838</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>12.8509</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1491.208</v>
       </c>
       <c r="F4" s="1">
         <v>778.1556</v>
       </c>
       <c r="G4" s="1">
-        <v>2269.3636</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29011.9978</v>
+        <v>19063.9008</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.2196</v>
+        <v>19063.9008</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.4119</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29011.9978</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0034</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>13.8614</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2269.3636</v>
       </c>
       <c r="F5" s="1">
         <v>631.3943</v>
       </c>
       <c r="G5" s="1">
-        <v>2900.7578</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>31293.389</v>
       </c>
       <c r="I5" s="1">
-        <v>38752.0083</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.3593</v>
+        <v>31293.389</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28752.0083</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.6696</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-8752.0083</v>
       </c>
-      <c r="O5" s="1">
-        <v>1247.9917</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41247.9917</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0573</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>14.3229</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2900.7578</v>
       </c>
       <c r="F6" s="1">
         <v>608.3588999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3509.1167</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>41331.7379</v>
       </c>
       <c r="I6" s="1">
-        <v>47465.4714</v>
+        <v>1247.9917</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5263</v>
+        <v>42579.7296</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37465.4714</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.9158</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8713.463100000001</v>
       </c>
-      <c r="O6" s="1">
-        <v>2534.5286</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52534.5286</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0251</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>14.2341</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3509.1167</v>
       </c>
       <c r="F7" s="1">
         <v>728.1116</v>
       </c>
       <c r="G7" s="1">
-        <v>4237.2283</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>49689.7941</v>
       </c>
       <c r="I7" s="1">
-        <v>57829.4848</v>
+        <v>2534.5286</v>
       </c>
       <c r="J7" s="1">
-        <v>13.648</v>
+        <v>52224.3227</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47829.4848</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.6301</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10364.0134</v>
       </c>
-      <c r="O7" s="1">
-        <v>2170.5152</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62170.5152</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0058</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>13.7456</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4237.2283</v>
       </c>
       <c r="F8" s="1">
         <v>881.8637</v>
       </c>
       <c r="G8" s="1">
-        <v>5119.092</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>57941.1308</v>
       </c>
       <c r="I8" s="1">
-        <v>69951.2309</v>
+        <v>2170.5152</v>
       </c>
       <c r="J8" s="1">
-        <v>13.6648</v>
+        <v>60111.646</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59951.2309</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>14.1487</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-12121.7461</v>
       </c>
-      <c r="O8" s="1">
-        <v>48.7691</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70048.7691</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0294</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>14.5325</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>5119.092</v>
       </c>
       <c r="F9" s="1">
         <v>414.5212</v>
       </c>
       <c r="G9" s="1">
-        <v>5533.6132</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>74007.2252</v>
       </c>
       <c r="I9" s="1">
-        <v>75975.26059999999</v>
+        <v>48.7691</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7298</v>
+        <v>74055.99430000001</v>
       </c>
       <c r="K9" s="1">
+        <v>65975.26059999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>12.8881</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.75</v>
       </c>
-      <c r="L9" s="1">
-        <v>3455.3871</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-2568.6426</v>
+        <v>2860.1291</v>
       </c>
       <c r="O9" s="1">
-        <v>7480.1266</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87480.1266</v>
+        <v>-3163.9006</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>14.0538</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>5533.6132</v>
       </c>
       <c r="F10" s="1">
         <v>903.7406</v>
       </c>
       <c r="G10" s="1">
-        <v>6437.3538</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>77364.8934</v>
       </c>
       <c r="I10" s="1">
-        <v>88676.2499</v>
+        <v>6884.8685</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7753</v>
+        <v>84249.7619</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>78676.2499</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.2179</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-12700.9893</v>
       </c>
-      <c r="O10" s="1">
-        <v>4779.1372</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94779.1372</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0277</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>13.1873</v>
       </c>
       <c r="E11" s="1">
+        <v>6437.3538</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1075.5711</v>
+      </c>
+      <c r="G11" s="1">
         <v>100000</v>
       </c>
-      <c r="F11" s="1">
-        <v>1120.7099</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7558.0637</v>
-      </c>
       <c r="H11" s="1">
-        <v>99153.4817</v>
+        <v>84451.001</v>
       </c>
       <c r="I11" s="1">
-        <v>103455.3871</v>
+        <v>4183.8792</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6881</v>
+        <v>88634.8802</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92860.12910000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.4252</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-14779.1372</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>99153.4817</v>
+        <v>-14183.8792</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0537</v>
+        <v>-0.0596</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>13.0538</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>7512.925</v>
       </c>
       <c r="F12" s="1">
         <v>766.0605</v>
       </c>
       <c r="G12" s="1">
-        <v>8324.124100000001</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>108097.9085</v>
+        <v>97563.5947</v>
       </c>
       <c r="I12" s="1">
-        <v>113455.3871</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6297</v>
+        <v>97563.5947</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102860.1291</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.6911</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>108097.9085</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0097</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>13.8433</v>
       </c>
       <c r="E13" s="1">
+        <v>8278.9854</v>
+      </c>
+      <c r="F13" s="1">
+        <v>434.6623</v>
+      </c>
+      <c r="G13" s="1">
         <v>120000</v>
       </c>
-      <c r="F13" s="1">
-        <v>389.5236</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8713.647800000001</v>
-      </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>114014.0476</v>
       </c>
       <c r="I13" s="1">
-        <v>118847.6793</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.6393</v>
+        <v>114014.0476</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>108877.2903</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.151</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-5392.2922</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>4607.7078</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>124607.7078</v>
+        <v>-6017.1612</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0551</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>14.4086</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8713.647800000001</v>
       </c>
       <c r="F14" s="1">
         <v>-8713.647800000001</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124900.5555</v>
       </c>
       <c r="I14" s="1">
-        <v>118847.6793</v>
+        <v>3982.8388</v>
       </c>
       <c r="J14" s="1">
-        <v>13.6393</v>
+        <v>128883.3943</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>108877.2903</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.495</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124900.5555</v>
       </c>
-      <c r="O14" s="1">
-        <v>129508.2633</v>
-      </c>
-      <c r="P14" s="1">
-        <v>129508.2633</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0379</v>
+        <v>0.0393</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>13.9876</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>714.9189</v>
       </c>
       <c r="G2" s="1">
-        <v>714.9189</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1684</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.9876</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1684</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>12.8818</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>714.9189</v>
       </c>
       <c r="F3" s="1">
         <v>776.289</v>
       </c>
       <c r="G3" s="1">
-        <v>1491.208</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19109.83</v>
+        <v>9161.686100000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.4119</v>
+        <v>9161.686100000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.9876</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19109.83</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.042</v>
+        <v>-0.0838</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>12.8509</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1491.208</v>
       </c>
       <c r="F4" s="1">
         <v>778.1556</v>
       </c>
       <c r="G4" s="1">
-        <v>2269.3636</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29011.9978</v>
+        <v>19063.9008</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.2196</v>
+        <v>19063.9008</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.4119</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29011.9978</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0034</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>13.8614</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2269.3636</v>
       </c>
       <c r="F5" s="1">
         <v>653.2225</v>
       </c>
       <c r="G5" s="1">
-        <v>2922.5861</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31293.389</v>
       </c>
       <c r="I5" s="1">
-        <v>39054.579</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.363</v>
+        <v>31293.389</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29054.579</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.803</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9054.579</v>
       </c>
-      <c r="O5" s="1">
-        <v>945.421</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41246.4223</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0573</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>14.3229</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2922.5861</v>
       </c>
       <c r="F6" s="1">
         <v>621.7976</v>
       </c>
       <c r="G6" s="1">
-        <v>3544.3837</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>41642.7605</v>
       </c>
       <c r="I6" s="1">
-        <v>47960.5243</v>
+        <v>945.421</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5314</v>
+        <v>42588.1816</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37960.5243</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>12.9887</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-8905.945299999999</v>
       </c>
-      <c r="O6" s="1">
-        <v>2039.4757</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52541.982</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0253</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>14.2341</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3544.3837</v>
       </c>
       <c r="F7" s="1">
         <v>746.1643</v>
       </c>
       <c r="G7" s="1">
-        <v>4290.5481</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>50189.1827</v>
       </c>
       <c r="I7" s="1">
-        <v>58581.5019</v>
+        <v>2039.4757</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6536</v>
+        <v>52228.6585</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48581.5019</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.7066</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10620.9776</v>
       </c>
-      <c r="O7" s="1">
-        <v>1418.4981</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62173.5169</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0059</v>
+        <v>-0.0068</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>13.7456</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4290.5481</v>
       </c>
       <c r="F8" s="1">
         <v>830.7021</v>
       </c>
       <c r="G8" s="1">
-        <v>5121.2501</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>70029.51059999999</v>
+        <v>58670.2415</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>1418.4981</v>
       </c>
       <c r="J8" s="1">
-        <v>13.6685</v>
+        <v>60088.7396</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.9842</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-11418.4981</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70029.51059999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0297</v>
+        <v>-0.0344</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>14.5325</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>5121.2501</v>
       </c>
       <c r="F9" s="1">
         <v>510.1758</v>
       </c>
       <c r="G9" s="1">
-        <v>5631.4259</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>74038.4252</v>
       </c>
       <c r="I9" s="1">
-        <v>77414.1299</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7468</v>
+        <v>74038.4252</v>
       </c>
       <c r="K9" s="1">
+        <v>67414.1299</v>
+      </c>
+      <c r="L9" s="1">
+        <v>13.1636</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.75</v>
       </c>
-      <c r="L9" s="1">
-        <v>3456.8438</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-3957.2861</v>
+        <v>2896.1199</v>
       </c>
       <c r="O9" s="1">
-        <v>6042.7139</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87456.8017</v>
+        <v>-4518.01</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>14.0538</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>5631.4259</v>
       </c>
       <c r="F10" s="1">
         <v>936.1883</v>
       </c>
       <c r="G10" s="1">
-        <v>6567.6143</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>78732.4028</v>
       </c>
       <c r="I10" s="1">
-        <v>90571.1335</v>
+        <v>5481.99</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7906</v>
+        <v>84214.3928</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80571.1335</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.3074</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-13157.0036</v>
       </c>
-      <c r="O10" s="1">
-        <v>2885.7103</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94706.8686</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0282</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>13.1873</v>
       </c>
       <c r="E11" s="1">
+        <v>6567.6143</v>
+      </c>
+      <c r="F11" s="1">
+        <v>934.6103000000001</v>
+      </c>
+      <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
-      <c r="F11" s="1">
-        <v>977.1303</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7544.7446</v>
-      </c>
       <c r="H11" s="1">
-        <v>98978.7494</v>
+        <v>86159.87480000001</v>
       </c>
       <c r="I11" s="1">
-        <v>103456.8438</v>
+        <v>2324.9864</v>
       </c>
       <c r="J11" s="1">
-        <v>13.7124</v>
+        <v>88484.8612</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92896.11990000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.1446</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-12885.7103</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>98978.7494</v>
+        <v>-12324.9864</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0547</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>13.0538</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>7502.2246</v>
       </c>
       <c r="F12" s="1">
         <v>766.0605</v>
       </c>
       <c r="G12" s="1">
-        <v>8310.805</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>107924.945</v>
+        <v>97424.6384</v>
       </c>
       <c r="I12" s="1">
-        <v>113456.8438</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6517</v>
+        <v>97424.6384</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102896.1199</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.7154</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>107924.945</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0097</v>
+        <v>-0.0108</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>13.8433</v>
       </c>
       <c r="E13" s="1">
+        <v>8268.285</v>
+      </c>
+      <c r="F13" s="1">
+        <v>689.0271</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>646.5071</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8957.312099999999</v>
-      </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>113866.6872</v>
       </c>
       <c r="I13" s="1">
-        <v>122406.6355</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.6656</v>
+        <v>113866.6872</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112434.5286</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.5983</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-8949.7917</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>1050.2083</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>124405.832</v>
+        <v>-9538.4087</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>14.4086</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8957.312099999999</v>
       </c>
       <c r="F14" s="1">
         <v>-8957.312099999999</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128393.2161</v>
       </c>
       <c r="I14" s="1">
-        <v>122406.6355</v>
+        <v>461.5913</v>
       </c>
       <c r="J14" s="1">
-        <v>13.6656</v>
+        <v>128854.8074</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112434.5286</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5523</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128393.2161</v>
       </c>
-      <c r="O14" s="1">
-        <v>129443.4244</v>
-      </c>
-      <c r="P14" s="1">
-        <v>129443.4244</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0369</v>
+        <v>0.0403</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>13.9876</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>714.9189</v>
       </c>
       <c r="G2" s="1">
-        <v>714.9189</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1684</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.9876</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1684</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>12.8818</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>714.9189</v>
       </c>
       <c r="F3" s="1">
         <v>776.289</v>
       </c>
       <c r="G3" s="1">
-        <v>1491.208</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19109.83</v>
+        <v>9161.686100000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.4119</v>
+        <v>9161.686100000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.9876</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19109.83</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.042</v>
+        <v>-0.0838</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>12.8509</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1491.208</v>
       </c>
       <c r="F4" s="1">
         <v>778.1556</v>
       </c>
       <c r="G4" s="1">
-        <v>2269.3636</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29011.9978</v>
+        <v>19063.9008</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.2196</v>
+        <v>19063.9008</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.4119</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29011.9978</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0034</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>13.8614</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2269.3636</v>
       </c>
       <c r="F5" s="1">
         <v>675.1964</v>
       </c>
       <c r="G5" s="1">
-        <v>2944.56</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31293.389</v>
       </c>
       <c r="I5" s="1">
-        <v>39359.1677</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.3667</v>
+        <v>31293.389</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29359.1677</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.9372</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9359.1677</v>
       </c>
-      <c r="O5" s="1">
-        <v>640.8323</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41244.8423</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0572</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>14.3229</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2944.56</v>
       </c>
       <c r="F6" s="1">
         <v>635.4444</v>
       </c>
       <c r="G6" s="1">
-        <v>3580.0044</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>41955.8575</v>
       </c>
       <c r="I6" s="1">
-        <v>48460.5738</v>
+        <v>640.8323</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5365</v>
+        <v>42596.6898</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38460.5738</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.0616</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9101.4061</v>
       </c>
-      <c r="O6" s="1">
-        <v>1539.4262</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52549.4763</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0255</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>14.2341</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3580.0044</v>
       </c>
       <c r="F7" s="1">
         <v>764.5777</v>
       </c>
       <c r="G7" s="1">
-        <v>4344.582</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>50693.5777</v>
       </c>
       <c r="I7" s="1">
-        <v>59343.649</v>
+        <v>1539.4262</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6592</v>
+        <v>52233.0039</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49343.649</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.7831</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10883.0752</v>
       </c>
-      <c r="O7" s="1">
-        <v>656.351</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62176.5016</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.006</v>
+        <v>-0.0069</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>13.7456</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4344.582</v>
       </c>
       <c r="F8" s="1">
         <v>775.2554</v>
       </c>
       <c r="G8" s="1">
-        <v>5119.8375</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>70010.19349999999</v>
+        <v>59409.1182</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>656.351</v>
       </c>
       <c r="J8" s="1">
-        <v>13.6723</v>
+        <v>60065.4692</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.8103</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10656.351</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>70010.19349999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.03</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>14.5325</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>5119.8375</v>
       </c>
       <c r="F9" s="1">
         <v>611.3746</v>
       </c>
       <c r="G9" s="1">
-        <v>5731.212</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>74018.00229999999</v>
       </c>
       <c r="I9" s="1">
-        <v>78884.80100000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7641</v>
+        <v>74018.00229999999</v>
       </c>
       <c r="K9" s="1">
+        <v>68884.80100000001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>13.4545</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.75</v>
       </c>
-      <c r="L9" s="1">
-        <v>3455.8903</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-5428.9107</v>
+        <v>2932.5929</v>
       </c>
       <c r="O9" s="1">
-        <v>4571.0893</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87427.79489999999</v>
+        <v>-5952.2081</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0927</v>
+        <v>0.0564</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>14.0538</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>5731.212</v>
       </c>
       <c r="F10" s="1">
         <v>969.7352</v>
       </c>
       <c r="G10" s="1">
-        <v>6700.9472</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>80127.5025</v>
       </c>
       <c r="I10" s="1">
-        <v>92513.26489999999</v>
+        <v>4047.7919</v>
       </c>
       <c r="J10" s="1">
-        <v>13.806</v>
+        <v>84175.2944</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82513.26489999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.3972</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-13628.4639</v>
       </c>
-      <c r="O10" s="1">
-        <v>942.6254</v>
-      </c>
-      <c r="P10" s="1">
-        <v>94627.89810000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0287</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>13.1873</v>
       </c>
       <c r="E11" s="1">
+        <v>6700.9472</v>
+      </c>
+      <c r="F11" s="1">
+        <v>790.1032</v>
+      </c>
+      <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
-      <c r="F11" s="1">
-        <v>829.7851000000001</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7530.7323</v>
-      </c>
       <c r="H11" s="1">
-        <v>98794.9243</v>
+        <v>87909.05620000001</v>
       </c>
       <c r="I11" s="1">
-        <v>103455.8903</v>
+        <v>419.328</v>
       </c>
       <c r="J11" s="1">
-        <v>13.7378</v>
+        <v>88328.3842</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92932.5929</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.8686</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10942.6254</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>98794.9243</v>
+        <v>-10419.328</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0557</v>
+        <v>-0.0621</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>13.0538</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7491.0504</v>
       </c>
       <c r="F12" s="1">
         <v>766.0605</v>
       </c>
       <c r="G12" s="1">
-        <v>8296.792799999999</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>107742.9807</v>
+        <v>97279.52959999999</v>
       </c>
       <c r="I12" s="1">
-        <v>113455.8903</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6747</v>
+        <v>97279.52959999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102932.5929</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.7407</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>107742.9807</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0097</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>13.8433</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>8257.1109</v>
       </c>
       <c r="F13" s="1">
         <v>722.3711</v>
       </c>
       <c r="G13" s="1">
-        <v>9019.1639</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>124207.4155</v>
+        <v>113712.8022</v>
       </c>
       <c r="I13" s="1">
-        <v>123455.8903</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.6882</v>
+        <v>113712.8022</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112932.5929</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.677</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124207.4155</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0549</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>14.4086</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8979.482</v>
       </c>
       <c r="F14" s="1">
-        <v>-9019.1639</v>
+        <v>-8979.482</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128710.9966</v>
       </c>
       <c r="I14" s="1">
-        <v>123455.8903</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.6882</v>
+        <v>128710.9966</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112932.5929</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5767</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>129279.7933</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>129279.7933</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129279.7933</v>
+        <v>128710.9966</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0367</v>
+        <v>0.0404</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>13.9876</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>714.9189</v>
       </c>
       <c r="G2" s="1">
-        <v>714.9189</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1684</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>13.9876</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1684</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>12.8818</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>714.9189</v>
       </c>
       <c r="F3" s="1">
         <v>776.289</v>
       </c>
       <c r="G3" s="1">
-        <v>1491.208</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19109.83</v>
+        <v>9161.686100000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>13.4119</v>
+        <v>9161.686100000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>13.9876</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19109.83</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.042</v>
+        <v>-0.0838</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>12.8509</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1491.208</v>
       </c>
       <c r="F4" s="1">
         <v>778.1556</v>
       </c>
       <c r="G4" s="1">
-        <v>2269.3636</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29011.9978</v>
+        <v>19063.9008</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.2196</v>
+        <v>19063.9008</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>13.4119</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29011.9978</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0034</v>
+        <v>-0.0051</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>13.8614</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2269.3636</v>
       </c>
       <c r="F5" s="1">
         <v>697.3164</v>
       </c>
       <c r="G5" s="1">
-        <v>2966.68</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31293.389</v>
       </c>
       <c r="I5" s="1">
-        <v>39665.7818</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.3704</v>
+        <v>31293.389</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29665.7818</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.0723</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9665.781800000001</v>
       </c>
-      <c r="O5" s="1">
-        <v>334.2182</v>
-      </c>
-      <c r="P5" s="1">
-        <v>41243.2519</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0572</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>14.3229</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2966.68</v>
       </c>
       <c r="F6" s="1">
         <v>649.3012</v>
       </c>
       <c r="G6" s="1">
-        <v>3615.9812</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42271.0365</v>
       </c>
       <c r="I6" s="1">
-        <v>48965.6576</v>
+        <v>334.2182</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5415</v>
+        <v>42605.2547</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38965.6576</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.1344</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9299.8758</v>
       </c>
-      <c r="O6" s="1">
-        <v>1034.3424</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52557.0116</v>
-      </c>
       <c r="Q6" s="3">
-        <v>0.0256</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>14.2341</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3615.9812</v>
       </c>
       <c r="F7" s="1">
         <v>775.2048</v>
       </c>
       <c r="G7" s="1">
-        <v>4391.1859</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62180.0713</v>
+        <v>51203.0165</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1034.3424</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6637</v>
+        <v>52237.3589</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.8275</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11034.3424</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>62180.0713</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>13.7456</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4391.1859</v>
       </c>
       <c r="F8" s="1">
         <v>727.5055</v>
       </c>
       <c r="G8" s="1">
-        <v>5118.6915</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>69994.5229</v>
+        <v>60046.394</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.6754</v>
+        <v>60046.394</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>13.6637</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>69994.5229</v>
-      </c>
       <c r="Q8" s="3">
-        <v>-0.0303</v>
+        <v>-0.0352</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>14.5325</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>5118.6915</v>
       </c>
       <c r="F9" s="1">
         <v>688.1129</v>
       </c>
       <c r="G9" s="1">
-        <v>5806.8043</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>83949.5508</v>
+        <v>74001.43459999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7769</v>
+        <v>74001.43459999999</v>
       </c>
       <c r="K9" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>13.6754</v>
+      </c>
+      <c r="M9" s="1">
         <v>0.75</v>
       </c>
-      <c r="L9" s="1">
-        <v>3455.1167</v>
-      </c>
-      <c r="M9" s="1">
-        <v>10000</v>
-      </c>
       <c r="N9" s="1">
-        <v>-6544.8833</v>
+        <v>2964.0505</v>
       </c>
       <c r="O9" s="1">
-        <v>3455.1167</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>87404.6676</v>
+        <v>-7035.9495</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0926</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>14.0538</v>
       </c>
       <c r="E10" s="1">
+        <v>5806.8043</v>
+      </c>
+      <c r="F10" s="1">
+        <v>922.4587</v>
+      </c>
+      <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
-      <c r="F10" s="1">
-        <v>957.4006000000001</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6764.2049</v>
-      </c>
       <c r="H10" s="1">
-        <v>94569.67290000001</v>
+        <v>81184.35060000001</v>
       </c>
       <c r="I10" s="1">
-        <v>93455.1167</v>
+        <v>2964.0505</v>
       </c>
       <c r="J10" s="1">
-        <v>13.8161</v>
+        <v>84148.4011</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82964.0505</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.2874</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-13455.1167</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>94569.67290000001</v>
+        <v>-12964.0505</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0291</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>13.1873</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6729.2631</v>
       </c>
       <c r="F11" s="1">
         <v>758.3053</v>
       </c>
       <c r="G11" s="1">
-        <v>7522.5103</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>98687.0601</v>
+        <v>88280.5291</v>
       </c>
       <c r="I11" s="1">
-        <v>103455.1167</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.7527</v>
+        <v>88280.5291</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92964.0505</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.8149</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98687.0601</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0563</v>
+        <v>-0.0623</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>13.0538</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7487.5684</v>
       </c>
       <c r="F12" s="1">
         <v>766.0605</v>
       </c>
       <c r="G12" s="1">
-        <v>8288.5707</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>107636.2085</v>
+        <v>97234.31200000001</v>
       </c>
       <c r="I12" s="1">
-        <v>113455.1167</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6881</v>
+        <v>97234.31200000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102964.0505</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.7513</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>107636.2085</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0097</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>13.8433</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8253.6289</v>
       </c>
       <c r="F13" s="1">
         <v>722.3711</v>
       </c>
       <c r="G13" s="1">
-        <v>9010.941800000001</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>124094.1857</v>
+        <v>113664.8498</v>
       </c>
       <c r="I13" s="1">
-        <v>123455.1167</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7006</v>
+        <v>113664.8498</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112964.0505</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.6866</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124094.1857</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0549</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>14.4086</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8976</v>
       </c>
       <c r="F14" s="1">
-        <v>-9010.941800000001</v>
+        <v>-8976</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128661.0859</v>
       </c>
       <c r="I14" s="1">
-        <v>123455.1167</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7006</v>
+        <v>128661.0859</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112964.0505</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5851</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>129161.9394</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>129161.9394</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129161.9394</v>
+        <v>128661.0859</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0368</v>
+        <v>0.0404</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.3698</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.6854</v>
+        <v>12.573</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6393</v>
+        <v>12.495</v>
       </c>
       <c r="E3" s="1">
-        <v>13.6656</v>
+        <v>12.5523</v>
       </c>
       <c r="F3" s="1">
-        <v>13.6882</v>
+        <v>12.5767</v>
       </c>
       <c r="G3" s="1">
-        <v>13.7006</v>
+        <v>12.5851</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.0438</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0183</v>
+        <v>0.0643</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0208</v>
+        <v>0.06560000000000001</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0198</v>
+        <v>0.065</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0181</v>
+        <v>0.0635</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0169</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1679</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1531</v>
+        <v>0.1645</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1529</v>
+        <v>0.1635</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1532</v>
+        <v>0.1643</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1536</v>
+        <v>0.1651</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1539</v>
+        <v>0.1653</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.1398</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.0133</v>
+        <v>0.2672</v>
       </c>
       <c r="D6" s="4">
-        <v>0.0032</v>
+        <v>0.2768</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.0033</v>
+        <v>0.2719</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.0147</v>
+        <v>0.2616</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.0225</v>
+        <v>0.2579</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1479</v>
+        <v>-0.0361</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1541</v>
+        <v>0.1434</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1513</v>
+        <v>0.1414</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1474</v>
+        <v>0.138</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1448</v>
+        <v>0.1367</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3455.3371</v>
+        <v>2964.2708</v>
       </c>
       <c r="D8" s="1">
-        <v>3455.3871</v>
+        <v>2860.1291</v>
       </c>
       <c r="E8" s="1">
-        <v>3456.8438</v>
+        <v>2896.1199</v>
       </c>
       <c r="F8" s="1">
-        <v>3455.8903</v>
+        <v>2932.5929</v>
       </c>
       <c r="G8" s="1">
-        <v>3455.1167</v>
+        <v>2964.0505</v>
       </c>
     </row>
   </sheetData>
